--- a/data/spreadsheet/YTDPayrollTemplate.xlsx
+++ b/data/spreadsheet/YTDPayrollTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insulpro\system\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8C9CEF-D720-4EA8-9C3A-92693FE1E696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F86B3-6EE2-4974-A860-46BD9DCCA965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B8022FCD-F3CB-4CD7-9C0D-4875B0892892}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8022FCD-F3CB-4CD7-9C0D-4875B0892892}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -92,8 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,37 +449,40 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/spreadsheet/YTDPayrollTemplate.xlsx
+++ b/data/spreadsheet/YTDPayrollTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F86B3-6EE2-4974-A860-46BD9DCCA965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1852FCC-2ABE-4BB4-BAA3-15C8F5439C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8022FCD-F3CB-4CD7-9C0D-4875B0892892}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Year‑To‑Date Payroll Summary</t>
   </si>
@@ -47,16 +47,19 @@
     <t>Year:</t>
   </si>
   <si>
-    <t>Employee Totals</t>
-  </si>
-  <si>
-    <t>Pay Item Totals</t>
-  </si>
-  <si>
-    <t>Job Totals</t>
-  </si>
-  <si>
-    <t>Month Totals</t>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Pay Item</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CA3F96-21B3-4C1E-838E-8A1A5A7D3D0F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,33 +460,45 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
